--- a/results/Path length distribution.xlsx
+++ b/results/Path length distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="10 Trials" sheetId="1" r:id="rId1"/>
@@ -411,11 +411,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="260879704"/>
-        <c:axId val="260880096"/>
+        <c:axId val="257737752"/>
+        <c:axId val="257738144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="260879704"/>
+        <c:axId val="257737752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,7 +542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260880096"/>
+        <c:crossAx val="257738144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -550,7 +550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260880096"/>
+        <c:axId val="257738144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260879704"/>
+        <c:crossAx val="257737752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -915,11 +915,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="139211744"/>
-        <c:axId val="139209000"/>
+        <c:axId val="257738928"/>
+        <c:axId val="257739320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139211744"/>
+        <c:axId val="257738928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139209000"/>
+        <c:crossAx val="257739320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139209000"/>
+        <c:axId val="257739320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139211744"/>
+        <c:crossAx val="257738928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2665,7 +2665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:N10"/>
     </sheetView>
   </sheetViews>
@@ -3063,7 +3063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -3211,23 +3211,23 @@
         <v>4</v>
       </c>
       <c r="T3">
-        <f>(Z3/2)-1</f>
+        <f t="shared" ref="T3:T27" si="0">(Z3/2)-1</f>
         <v>1</v>
       </c>
       <c r="U3">
-        <f>(Z3/2)*(Z3/4)</f>
+        <f t="shared" ref="U3:U27" si="1">(Z3/2)*(Z3/4)</f>
         <v>2</v>
       </c>
       <c r="V3">
-        <f>((Z3/2)*((Z3/4)-1))+((Z3-1)*(Z3/2))</f>
+        <f t="shared" ref="V3:V27" si="2">((Z3/2)*((Z3/4)-1))+((Z3-1)*(Z3/2))</f>
         <v>6</v>
       </c>
       <c r="W3">
-        <f>(Z3-1)*(Z3/4)*(Z3/2)</f>
+        <f t="shared" ref="W3:W27" si="3">(Z3-1)*(Z3/4)*(Z3/2)</f>
         <v>6</v>
       </c>
       <c r="X3">
-        <f>(Z3-1)*((Z3/4)-1)*(Z3/2)</f>
+        <f t="shared" ref="X3:X27" si="4">(Z3-1)*((Z3/4)-1)*(Z3/2)</f>
         <v>0</v>
       </c>
       <c r="Y3">
@@ -3259,50 +3259,50 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K27" si="0">T4/Y4</f>
+        <f t="shared" ref="K4:K27" si="5">T4/Y4</f>
         <v>2.3622047244094488E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L27" si="1">U4/Y4</f>
+        <f t="shared" ref="L4:L27" si="6">U4/Y4</f>
         <v>6.2992125984251968E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M27" si="2">V4/Y4</f>
+        <f t="shared" ref="M4:M27" si="7">V4/Y4</f>
         <v>0.25196850393700787</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N27" si="3">W4/Y4</f>
+        <f t="shared" ref="N4:N27" si="8">W4/Y4</f>
         <v>0.44094488188976377</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O27" si="4">X4/Y4</f>
+        <f t="shared" ref="O4:O27" si="9">X4/Y4</f>
         <v>0.22047244094488189</v>
       </c>
       <c r="P4">
         <v>8</v>
       </c>
       <c r="T4">
-        <f>(Z4/2)-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U4">
-        <f>(Z4/2)*(Z4/4)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="V4">
-        <f>((Z4/2)*((Z4/4)-1))+((Z4-1)*(Z4/2))</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="W4">
-        <f>(Z4-1)*(Z4/4)*(Z4/2)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="X4">
-        <f>(Z4-1)*((Z4/4)-1)*(Z4/2)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y27" si="5">(((Z4)^3)/4)-1</f>
+        <f t="shared" ref="Y4:Y27" si="10">(((Z4)^3)/4)-1</f>
         <v>127</v>
       </c>
       <c r="Z4">
@@ -3330,50 +3330,50 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.1600928074245939E-2</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.1763341067285381E-2</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.18097447795823665</v>
       </c>
       <c r="N5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.45939675174013922</v>
       </c>
       <c r="O5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.30626450116009279</v>
       </c>
       <c r="P5">
         <v>12</v>
       </c>
       <c r="T5">
-        <f>(Z5/2)-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="U5">
-        <f>(Z5/2)*(Z5/4)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="V5">
-        <f>((Z5/2)*((Z5/4)-1))+((Z5-1)*(Z5/2))</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="W5">
-        <f>(Z5-1)*(Z5/4)*(Z5/2)</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="X5">
-        <f>(Z5-1)*((Z5/4)-1)*(Z5/2)</f>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>431</v>
       </c>
       <c r="Z5">
@@ -3382,50 +3382,50 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.8426197458455523E-3</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.1280547409579668E-2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.14076246334310852</v>
       </c>
       <c r="N6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.46920821114369504</v>
       </c>
       <c r="O6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.35190615835777128</v>
       </c>
       <c r="P6">
         <v>16</v>
       </c>
       <c r="T6">
-        <f>(Z6/2)-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="U6">
-        <f>(Z6/2)*(Z6/4)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="V6">
-        <f>((Z6/2)*((Z6/4)-1))+((Z6-1)*(Z6/2))</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="W6">
-        <f>(Z6-1)*(Z6/4)*(Z6/2)</f>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
       <c r="X6">
-        <f>(Z6-1)*((Z6/4)-1)*(Z6/2)</f>
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1023</v>
       </c>
       <c r="Z6">
@@ -3434,50 +3434,50 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.5022511255627812E-3</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5012506253126562E-2</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.11505752876438219</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.47523761880940468</v>
       </c>
       <c r="O7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.38019009504752377</v>
       </c>
       <c r="P7">
         <v>20</v>
       </c>
       <c r="T7">
-        <f>(Z7/2)-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="U7">
-        <f>(Z7/2)*(Z7/4)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="V7">
-        <f>((Z7/2)*((Z7/4)-1))+((Z7-1)*(Z7/2))</f>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="W7">
-        <f>(Z7-1)*(Z7/4)*(Z7/2)</f>
+        <f t="shared" si="3"/>
         <v>950</v>
       </c>
       <c r="X7">
-        <f>(Z7-1)*((Z7/4)-1)*(Z7/2)</f>
+        <f t="shared" si="4"/>
         <v>760</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1999</v>
       </c>
       <c r="Z7">
@@ -3486,50 +3486,50 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.1837916063675834E-3</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.0839363241678725E-2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>9.7250361794500723E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.47930535455861073</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.39942112879884228</v>
       </c>
       <c r="P8">
         <v>24</v>
       </c>
       <c r="T8">
-        <f>(Z8/2)-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="U8">
-        <f>(Z8/2)*(Z8/4)</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="V8">
-        <f>((Z8/2)*((Z8/4)-1))+((Z8-1)*(Z8/2))</f>
+        <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="W8">
-        <f>(Z8-1)*(Z8/4)*(Z8/2)</f>
+        <f t="shared" si="3"/>
         <v>1656</v>
       </c>
       <c r="X8">
-        <f>(Z8-1)*((Z8/4)-1)*(Z8/2)</f>
+        <f t="shared" si="4"/>
         <v>1380</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3455</v>
       </c>
       <c r="Z8">
@@ -3538,50 +3538,50 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.369236376890833E-3</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.7860397302715509E-2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.4199015855658824E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.48223072717331877</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.41334062329141608</v>
       </c>
       <c r="P9">
         <v>28</v>
       </c>
       <c r="T9">
-        <f>(Z9/2)-1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="U9">
-        <f>(Z9/2)*(Z9/4)</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="V9">
-        <f>((Z9/2)*((Z9/4)-1))+((Z9-1)*(Z9/2))</f>
+        <f t="shared" si="2"/>
         <v>462</v>
       </c>
       <c r="W9">
-        <f>(Z9-1)*(Z9/4)*(Z9/2)</f>
+        <f t="shared" si="3"/>
         <v>2646</v>
       </c>
       <c r="X9">
-        <f>(Z9-1)*((Z9/4)-1)*(Z9/2)</f>
+        <f t="shared" si="4"/>
         <v>2268</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5487</v>
       </c>
       <c r="Z9">
@@ -3590,50 +3590,50 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.8312782322060799E-3</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.5626907581491881E-2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.4227811012086434E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.48443413502624832</v>
       </c>
       <c r="O10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.4238798681479673</v>
       </c>
       <c r="P10">
         <v>32</v>
       </c>
       <c r="T10">
-        <f>(Z10/2)-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="U10">
-        <f>(Z10/2)*(Z10/4)</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="V10">
-        <f>((Z10/2)*((Z10/4)-1))+((Z10-1)*(Z10/2))</f>
+        <f t="shared" si="2"/>
         <v>608</v>
       </c>
       <c r="W10">
-        <f>(Z10-1)*(Z10/4)*(Z10/2)</f>
+        <f t="shared" si="3"/>
         <v>3968</v>
       </c>
       <c r="X10">
-        <f>(Z10-1)*((Z10/4)-1)*(Z10/2)</f>
+        <f t="shared" si="4"/>
         <v>3472</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8191</v>
       </c>
       <c r="Z10">
@@ -3642,50 +3642,50 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.4576009603018091E-3</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.3890079739346651E-2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.6363714310211777E-2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.48615279087713281</v>
       </c>
       <c r="O11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.43213581411300694</v>
       </c>
       <c r="P11">
         <v>36</v>
       </c>
       <c r="T11">
-        <f>(Z11/2)-1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="U11">
-        <f>(Z11/2)*(Z11/4)</f>
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="V11">
-        <f>((Z11/2)*((Z11/4)-1))+((Z11-1)*(Z11/2))</f>
+        <f t="shared" si="2"/>
         <v>774</v>
       </c>
       <c r="W11">
-        <f>(Z11-1)*(Z11/4)*(Z11/2)</f>
+        <f t="shared" si="3"/>
         <v>5670</v>
       </c>
       <c r="X11">
-        <f>(Z11-1)*((Z11/4)-1)*(Z11/2)</f>
+        <f t="shared" si="4"/>
         <v>5040</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11663</v>
       </c>
       <c r="Z11">
@@ -3694,50 +3694,50 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.1875742233889619E-3</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.2500781298831178E-2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.0003750234389648E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.4875304706544159</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.43877742358897431</v>
       </c>
       <c r="P12">
         <v>40</v>
       </c>
       <c r="T12">
-        <f>(Z12/2)-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="U12">
-        <f>(Z12/2)*(Z12/4)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="V12">
-        <f>((Z12/2)*((Z12/4)-1))+((Z12-1)*(Z12/2))</f>
+        <f t="shared" si="2"/>
         <v>960</v>
       </c>
       <c r="W12">
-        <f>(Z12-1)*(Z12/4)*(Z12/2)</f>
+        <f t="shared" si="3"/>
         <v>7800</v>
       </c>
       <c r="X12">
-        <f>(Z12-1)*((Z12/4)-1)*(Z12/2)</f>
+        <f t="shared" si="4"/>
         <v>7020</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15999</v>
       </c>
       <c r="Z12">
@@ -3746,50 +3746,50 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9.8614698285982632E-4</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.1364169992956093E-2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.4754637238788449E-2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.48865930969711202</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.44423573608828365</v>
       </c>
       <c r="P13">
         <v>44</v>
       </c>
       <c r="T13">
-        <f>(Z13/2)-1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="U13">
-        <f>(Z13/2)*(Z13/4)</f>
+        <f t="shared" si="1"/>
         <v>242</v>
       </c>
       <c r="V13">
-        <f>((Z13/2)*((Z13/4)-1))+((Z13-1)*(Z13/2))</f>
+        <f t="shared" si="2"/>
         <v>1166</v>
       </c>
       <c r="W13">
-        <f>(Z13-1)*(Z13/4)*(Z13/2)</f>
+        <f t="shared" si="3"/>
         <v>10406</v>
       </c>
       <c r="X13">
-        <f>(Z13-1)*((Z13/4)-1)*(Z13/2)</f>
+        <f t="shared" si="4"/>
         <v>9460</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>21295</v>
       </c>
       <c r="Z13">
@@ -3798,50 +3798,50 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.3191666365247589E-4</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0417043440517958E-2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.0349043295836803E-2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.48960104170434404</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.4488009548956487</v>
       </c>
       <c r="P14">
         <v>48</v>
       </c>
       <c r="T14">
-        <f>(Z14/2)-1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="U14">
-        <f>(Z14/2)*(Z14/4)</f>
+        <f t="shared" si="1"/>
         <v>288</v>
       </c>
       <c r="V14">
-        <f>((Z14/2)*((Z14/4)-1))+((Z14-1)*(Z14/2))</f>
+        <f t="shared" si="2"/>
         <v>1392</v>
       </c>
       <c r="W14">
-        <f>(Z14-1)*(Z14/4)*(Z14/2)</f>
+        <f t="shared" si="3"/>
         <v>13536</v>
       </c>
       <c r="X14">
-        <f>(Z14-1)*((Z14/4)-1)*(Z14/2)</f>
+        <f t="shared" si="4"/>
         <v>12408</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>27647</v>
       </c>
       <c r="Z14">
@@ -3856,50 +3856,50 @@
       <c r="C15" s="9"/>
       <c r="D15" s="5"/>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7.1121731956416603E-4</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.6156581605075248E-3</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.659895877784416E-2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49039856618588373</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.4526755995562004</v>
       </c>
       <c r="P15">
         <v>52</v>
       </c>
       <c r="T15">
-        <f>(Z15/2)-1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="U15">
-        <f>(Z15/2)*(Z15/4)</f>
+        <f t="shared" si="1"/>
         <v>338</v>
       </c>
       <c r="V15">
-        <f>((Z15/2)*((Z15/4)-1))+((Z15-1)*(Z15/2))</f>
+        <f t="shared" si="2"/>
         <v>1638</v>
       </c>
       <c r="W15">
-        <f>(Z15-1)*(Z15/4)*(Z15/2)</f>
+        <f t="shared" si="3"/>
         <v>17238</v>
       </c>
       <c r="X15">
-        <f>(Z15-1)*((Z15/4)-1)*(Z15/2)</f>
+        <f t="shared" si="4"/>
         <v>15912</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>35151</v>
       </c>
       <c r="Z15">
@@ -3908,50 +3908,50 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.1499214176707743E-4</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.9287747989886795E-3</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.3368334737945012E-2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49108261394437736</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.45600528437692184</v>
       </c>
       <c r="P16">
         <v>56</v>
       </c>
       <c r="T16">
-        <f>(Z16/2)-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="U16">
-        <f>(Z16/2)*(Z16/4)</f>
+        <f t="shared" si="1"/>
         <v>392</v>
       </c>
       <c r="V16">
-        <f>((Z16/2)*((Z16/4)-1))+((Z16-1)*(Z16/2))</f>
+        <f t="shared" si="2"/>
         <v>1904</v>
       </c>
       <c r="W16">
-        <f>(Z16-1)*(Z16/4)*(Z16/2)</f>
+        <f t="shared" si="3"/>
         <v>21560</v>
       </c>
       <c r="X16">
-        <f>(Z16-1)*((Z16/4)-1)*(Z16/2)</f>
+        <f t="shared" si="4"/>
         <v>20020</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>43903</v>
       </c>
       <c r="Z16">
@@ -3968,50 +3968,50 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.37046982351525E-4</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.3334876571788362E-3</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.0556306598270336E-2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49167577177355137</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.45889738698864796</v>
       </c>
       <c r="P17">
         <v>60</v>
       </c>
       <c r="T17">
-        <f>(Z17/2)-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="U17">
-        <f>(Z17/2)*(Z17/4)</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="V17">
-        <f>((Z17/2)*((Z17/4)-1))+((Z17-1)*(Z17/2))</f>
+        <f t="shared" si="2"/>
         <v>2190</v>
       </c>
       <c r="W17">
-        <f>(Z17-1)*(Z17/4)*(Z17/2)</f>
+        <f t="shared" si="3"/>
         <v>26550</v>
       </c>
       <c r="X17">
-        <f>(Z17-1)*((Z17/4)-1)*(Z17/2)</f>
+        <f t="shared" si="4"/>
         <v>24780</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>53999</v>
       </c>
       <c r="Z17">
@@ -4025,50 +4025,50 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.7302967879758907E-4</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7.8126192111085679E-3</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.8086518654154272E-2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49219501029983981</v>
       </c>
       <c r="O18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.46143282215609982</v>
       </c>
       <c r="P18">
         <v>64</v>
       </c>
       <c r="T18">
-        <f>(Z18/2)-1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="U18">
-        <f>(Z18/2)*(Z18/4)</f>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="V18">
-        <f>((Z18/2)*((Z18/4)-1))+((Z18-1)*(Z18/2))</f>
+        <f t="shared" si="2"/>
         <v>2496</v>
       </c>
       <c r="W18">
-        <f>(Z18-1)*(Z18/4)*(Z18/2)</f>
+        <f t="shared" si="3"/>
         <v>32256</v>
       </c>
       <c r="X18">
-        <f>(Z18-1)*((Z18/4)-1)*(Z18/2)</f>
+        <f t="shared" si="4"/>
         <v>30240</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>65535</v>
       </c>
       <c r="Z18">
@@ -4077,50 +4077,50 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.1980994059053264E-4</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7.3530347170099354E-3</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.5900110677166155E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49265332603966566</v>
       </c>
       <c r="O19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.46367371862556772</v>
       </c>
       <c r="P19">
         <v>68</v>
       </c>
       <c r="T19">
-        <f>(Z19/2)-1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="U19">
-        <f>(Z19/2)*(Z19/4)</f>
+        <f t="shared" si="1"/>
         <v>578</v>
       </c>
       <c r="V19">
-        <f>((Z19/2)*((Z19/4)-1))+((Z19-1)*(Z19/2))</f>
+        <f t="shared" si="2"/>
         <v>2822</v>
       </c>
       <c r="W19">
-        <f>(Z19-1)*(Z19/4)*(Z19/2)</f>
+        <f t="shared" si="3"/>
         <v>38726</v>
       </c>
       <c r="X19">
-        <f>(Z19-1)*((Z19/4)-1)*(Z19/2)</f>
+        <f t="shared" si="4"/>
         <v>36448</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>78607</v>
       </c>
       <c r="Z19">
@@ -4136,50 +4136,50 @@
         <v>4.6666666666666671E-3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.7508975361961615E-4</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.944518867014607E-3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.395098112762697E-2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49306083955803709</v>
       </c>
       <c r="O20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.46566857069370171</v>
       </c>
       <c r="P20">
         <v>72</v>
       </c>
       <c r="T20">
-        <f>(Z20/2)-1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="U20">
-        <f>(Z20/2)*(Z20/4)</f>
+        <f t="shared" si="1"/>
         <v>648</v>
       </c>
       <c r="V20">
-        <f>((Z20/2)*((Z20/4)-1))+((Z20-1)*(Z20/2))</f>
+        <f t="shared" si="2"/>
         <v>3168</v>
       </c>
       <c r="W20">
-        <f>(Z20-1)*(Z20/4)*(Z20/2)</f>
+        <f t="shared" si="3"/>
         <v>46008</v>
       </c>
       <c r="X20">
-        <f>(Z20-1)*((Z20/4)-1)*(Z20/2)</f>
+        <f t="shared" si="4"/>
         <v>43452</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>93311</v>
       </c>
       <c r="Z20">
@@ -4195,50 +4195,50 @@
         <v>0.03</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.371513445048887E-4</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.5790073170953955E-3</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.2202509499466937E-2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49342554878215467</v>
       </c>
       <c r="O21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.4674557830567781</v>
       </c>
       <c r="P21">
         <v>76</v>
       </c>
       <c r="T21">
-        <f>(Z21/2)-1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="U21">
-        <f>(Z21/2)*(Z21/4)</f>
+        <f t="shared" si="1"/>
         <v>722</v>
       </c>
       <c r="V21">
-        <f>((Z21/2)*((Z21/4)-1))+((Z21-1)*(Z21/2))</f>
+        <f t="shared" si="2"/>
         <v>3534</v>
       </c>
       <c r="W21">
-        <f>(Z21-1)*(Z21/4)*(Z21/2)</f>
+        <f t="shared" si="3"/>
         <v>54150</v>
       </c>
       <c r="X21">
-        <f>(Z21-1)*((Z21/4)-1)*(Z21/2)</f>
+        <f t="shared" si="4"/>
         <v>51300</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>109743</v>
       </c>
       <c r="Z21">
@@ -4254,50 +4254,50 @@
         <v>0.13666666666666669</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.0468988038969053E-4</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.2500488285064729E-3</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.0625239259681716E-2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49375385745201134</v>
       </c>
       <c r="O22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.46906616457941075</v>
       </c>
       <c r="P22">
         <v>80</v>
       </c>
       <c r="T22">
-        <f>(Z22/2)-1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="U22">
-        <f>(Z22/2)*(Z22/4)</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="V22">
-        <f>((Z22/2)*((Z22/4)-1))+((Z22-1)*(Z22/2))</f>
+        <f t="shared" si="2"/>
         <v>3920</v>
       </c>
       <c r="W22">
-        <f>(Z22-1)*(Z22/4)*(Z22/2)</f>
+        <f t="shared" si="3"/>
         <v>63200</v>
       </c>
       <c r="X22">
-        <f>(Z22-1)*((Z22/4)-1)*(Z22/2)</f>
+        <f t="shared" si="4"/>
         <v>60040</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>127999</v>
       </c>
       <c r="Z22">
@@ -4313,50 +4313,50 @@
         <v>0.48266666666666663</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.7669984815252238E-4</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.9524211236713347E-3</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.9195208368483213E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49405095326472076</v>
       </c>
       <c r="O23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.47052471739497215</v>
       </c>
       <c r="P23">
         <v>84</v>
       </c>
       <c r="T23">
-        <f>(Z23/2)-1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="U23">
-        <f>(Z23/2)*(Z23/4)</f>
+        <f t="shared" si="1"/>
         <v>882</v>
       </c>
       <c r="V23">
-        <f>((Z23/2)*((Z23/4)-1))+((Z23-1)*(Z23/2))</f>
+        <f t="shared" si="2"/>
         <v>4326</v>
       </c>
       <c r="W23">
-        <f>(Z23-1)*(Z23/4)*(Z23/2)</f>
+        <f t="shared" si="3"/>
         <v>73206</v>
       </c>
       <c r="X23">
-        <f>(Z23-1)*((Z23/4)-1)*(Z23/2)</f>
+        <f t="shared" si="4"/>
         <v>69720</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>148175</v>
       </c>
       <c r="Z23">
@@ -4372,50 +4372,50 @@
         <v>0.34600000000000003</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.5239629740501387E-4</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.6818515322803126E-3</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.7892725703921536E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.4943210833083872</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.47185194315800594</v>
       </c>
       <c r="P24">
         <v>88</v>
       </c>
       <c r="T24">
-        <f>(Z24/2)-1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="U24">
-        <f>(Z24/2)*(Z24/4)</f>
+        <f t="shared" si="1"/>
         <v>968</v>
       </c>
       <c r="V24">
-        <f>((Z24/2)*((Z24/4)-1))+((Z24-1)*(Z24/2))</f>
+        <f t="shared" si="2"/>
         <v>4752</v>
       </c>
       <c r="W24">
-        <f>(Z24-1)*(Z24/4)*(Z24/2)</f>
+        <f t="shared" si="3"/>
         <v>84216</v>
       </c>
       <c r="X24">
-        <f>(Z24-1)*((Z24/4)-1)*(Z24/2)</f>
+        <f t="shared" si="4"/>
         <v>80388</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>170367</v>
       </c>
       <c r="Z24">
@@ -4424,50 +4424,50 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.3115923789367702E-4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.4348105264780061E-3</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.6701460412696294E-2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49456775790949858</v>
       </c>
       <c r="O25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.47306481191343341</v>
       </c>
       <c r="P25">
         <v>92</v>
       </c>
       <c r="T25">
-        <f>(Z25/2)-1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="U25">
-        <f>(Z25/2)*(Z25/4)</f>
+        <f t="shared" si="1"/>
         <v>1058</v>
       </c>
       <c r="V25">
-        <f>((Z25/2)*((Z25/4)-1))+((Z25-1)*(Z25/2))</f>
+        <f t="shared" si="2"/>
         <v>5198</v>
       </c>
       <c r="W25">
-        <f>(Z25-1)*(Z25/4)*(Z25/2)</f>
+        <f t="shared" si="3"/>
         <v>96278</v>
       </c>
       <c r="X25">
-        <f>(Z25-1)*((Z25/4)-1)*(Z25/2)</f>
+        <f t="shared" si="4"/>
         <v>92092</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>194671</v>
       </c>
       <c r="Z25">
@@ -4476,50 +4476,50 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.1249372691391292E-4</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.2083568809537803E-3</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.5607754664689421E-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49479390369060916</v>
       </c>
       <c r="O26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.47417749103683376</v>
       </c>
       <c r="P26">
         <v>96</v>
       </c>
       <c r="T26">
-        <f>(Z26/2)-1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="U26">
-        <f>(Z26/2)*(Z26/4)</f>
+        <f t="shared" si="1"/>
         <v>1152</v>
       </c>
       <c r="V26">
-        <f>((Z26/2)*((Z26/4)-1))+((Z26-1)*(Z26/2))</f>
+        <f t="shared" si="2"/>
         <v>5664</v>
       </c>
       <c r="W26">
-        <f>(Z26-1)*(Z26/4)*(Z26/2)</f>
+        <f t="shared" si="3"/>
         <v>109440</v>
       </c>
       <c r="X26">
-        <f>(Z26-1)*((Z26/4)-1)*(Z26/2)</f>
+        <f t="shared" si="4"/>
         <v>104880</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>221183</v>
       </c>
       <c r="Z26">
@@ -4528,50 +4528,50 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.9600078400313601E-4</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.0000200000800002E-3</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.4600098400393601E-2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.49500198000792001</v>
       </c>
       <c r="O27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.47520190080760322</v>
       </c>
       <c r="P27">
         <v>100</v>
       </c>
       <c r="T27">
-        <f>(Z27/2)-1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="U27">
-        <f>(Z27/2)*(Z27/4)</f>
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
       <c r="V27">
-        <f>((Z27/2)*((Z27/4)-1))+((Z27-1)*(Z27/2))</f>
+        <f t="shared" si="2"/>
         <v>6150</v>
       </c>
       <c r="W27">
-        <f>(Z27-1)*(Z27/4)*(Z27/2)</f>
+        <f t="shared" si="3"/>
         <v>123750</v>
       </c>
       <c r="X27">
-        <f>(Z27-1)*((Z27/4)-1)*(Z27/2)</f>
+        <f t="shared" si="4"/>
         <v>118800</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>249999</v>
       </c>
       <c r="Z27">

--- a/results/Path length distribution.xlsx
+++ b/results/Path length distribution.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="10 Trials" sheetId="1" r:id="rId1"/>
     <sheet name="50 Trials" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'10 Trials'!$B$11:$F$14</definedName>
@@ -411,11 +412,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257737752"/>
-        <c:axId val="257738144"/>
+        <c:axId val="282015392"/>
+        <c:axId val="282015784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257737752"/>
+        <c:axId val="282015392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,7 +543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257738144"/>
+        <c:crossAx val="282015784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -550,7 +551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257738144"/>
+        <c:axId val="282015784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257737752"/>
+        <c:crossAx val="282015392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -915,11 +916,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="257738928"/>
-        <c:axId val="257739320"/>
+        <c:axId val="282016568"/>
+        <c:axId val="282016960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257738928"/>
+        <c:axId val="282016568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257739320"/>
+        <c:crossAx val="282016960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257739320"/>
+        <c:axId val="282016960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257738928"/>
+        <c:crossAx val="282016568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,6 +1191,574 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 Trials'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jellyfish</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10 Trials'!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10 Trials'!$M$6:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 Trials'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fattree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10 Trials'!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10 Trials'!$L$6:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>4.9999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10 Trials'!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nacre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10 Trials'!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10 Trials'!$N$6:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36999999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="282017744"/>
+        <c:axId val="282018136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="282017744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Path length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282018136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="282018136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Fraction of Server Pairs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282017744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1322,6 +1891,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1826,6 +2435,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2377,6 +3489,43 @@
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>136604</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2665,7 +3814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:N10"/>
     </sheetView>
   </sheetViews>
@@ -3063,7 +4212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -4591,4 +5740,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>